--- a/badge_descriptions.xlsx
+++ b/badge_descriptions.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jake.spirek/Dropbox/Python Dev/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jake.spirek/GitHub/badges/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="16520" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="28840" windowHeight="25000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Working" sheetId="1" r:id="rId1"/>
@@ -24,190 +24,340 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
-  <si>
-    <t>Ideas</t>
-  </si>
-  <si>
-    <t>K12CO-I-249</t>
-  </si>
-  <si>
-    <t>K12CO-I-240</t>
-  </si>
-  <si>
-    <t>K12CO-I-217</t>
-  </si>
-  <si>
-    <t>K12CO-I-202</t>
-  </si>
-  <si>
-    <t>K12CO-I-188</t>
-  </si>
-  <si>
-    <t>K12CO-I-179</t>
-  </si>
-  <si>
-    <t>K12CO-I-163</t>
-  </si>
-  <si>
-    <t>K12CO-I-156</t>
-  </si>
-  <si>
-    <t>K12CO-I-149</t>
-  </si>
-  <si>
-    <t>K12CO-I-148</t>
-  </si>
-  <si>
-    <t>K12CO-I-142</t>
-  </si>
-  <si>
-    <t>K12CO-I-138</t>
-  </si>
-  <si>
-    <t>K12CO-I-125</t>
-  </si>
-  <si>
-    <t>K12CO-I-124</t>
-  </si>
-  <si>
-    <t>K12CO-I-123</t>
-  </si>
-  <si>
-    <t>K12CO-I-122</t>
-  </si>
-  <si>
-    <t>K12CO-I-113</t>
-  </si>
-  <si>
-    <t>K12CO-I-110</t>
-  </si>
-  <si>
-    <t>K12CO-I-108</t>
-  </si>
-  <si>
-    <t>K12CO-I-105</t>
-  </si>
-  <si>
-    <t>K12CO-I-104</t>
-  </si>
-  <si>
-    <t>K12CO-I-100</t>
-  </si>
-  <si>
-    <t>K12CO-I-99</t>
-  </si>
-  <si>
-    <t>K12CO-I-96</t>
-  </si>
-  <si>
-    <t>K12CO-I-95</t>
-  </si>
-  <si>
-    <t>K12CO-I-93</t>
-  </si>
-  <si>
-    <t>K12CO-I-92</t>
-  </si>
-  <si>
-    <t>K12CO-I-91</t>
-  </si>
-  <si>
-    <t>K12CO-I-89</t>
-  </si>
-  <si>
-    <t>K12CO-I-82</t>
-  </si>
-  <si>
-    <t>K12CO-I-79</t>
-  </si>
-  <si>
-    <t>K12CO-I-78</t>
-  </si>
-  <si>
-    <t>K12CO-I-75</t>
-  </si>
-  <si>
-    <t>K12CO-I-71</t>
-  </si>
-  <si>
-    <t>K12CO-I-70</t>
-  </si>
-  <si>
-    <t>K12CO-I-67</t>
-  </si>
-  <si>
-    <t>K12CO-I-65</t>
-  </si>
-  <si>
-    <t>K12CO-I-64</t>
-  </si>
-  <si>
-    <t>K12CO-I-62</t>
-  </si>
-  <si>
-    <t>K12CO-I-61</t>
-  </si>
-  <si>
-    <t>K12CO-I-58</t>
-  </si>
-  <si>
-    <t>K12CO-I-52</t>
-  </si>
-  <si>
-    <t>K12CO-I-51</t>
-  </si>
-  <si>
-    <t>K12CO-I-50</t>
-  </si>
-  <si>
-    <t>K12CO-I-48</t>
-  </si>
-  <si>
-    <t>K12CO-I-45</t>
-  </si>
-  <si>
-    <t>K12CO-I-44</t>
-  </si>
-  <si>
-    <t>K12CO-I-29</t>
-  </si>
-  <si>
-    <t>K12CO-I-28</t>
-  </si>
-  <si>
-    <t>K12CO-I-27</t>
-  </si>
-  <si>
-    <t>K12CO-I-25</t>
-  </si>
-  <si>
-    <t>K12CO-I-24</t>
-  </si>
-  <si>
-    <t>K12CO-I-22</t>
-  </si>
-  <si>
-    <t>K12CO-I-21</t>
-  </si>
-  <si>
-    <t>K12CO-I-20</t>
-  </si>
-  <si>
-    <t>K12CO-I-18</t>
-  </si>
-  <si>
-    <t>K12CO-I-17</t>
-  </si>
-  <si>
-    <t>K12CO-I-16</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="109">
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>1000thLikeGiven.png</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>100thLikeGiven.png</t>
+  </si>
+  <si>
+    <t>100thLikeReceived.png</t>
+  </si>
+  <si>
+    <t>100thNewTopic.png</t>
+  </si>
+  <si>
+    <t>100thResponseProvided.png</t>
+  </si>
+  <si>
+    <t>100thShare.png</t>
+  </si>
+  <si>
+    <t>10thNewTopic.png</t>
+  </si>
+  <si>
+    <t>10thResponseProvided.png</t>
+  </si>
+  <si>
+    <t>10thShare.png</t>
+  </si>
+  <si>
+    <t>10thVerifiedSolution.png</t>
+  </si>
+  <si>
+    <t>10YearUser.png</t>
+  </si>
+  <si>
+    <t>15YearUser.png</t>
+  </si>
+  <si>
+    <t>1stNewTopic.png</t>
+  </si>
+  <si>
+    <t>1stResponseProvided.png</t>
+  </si>
+  <si>
+    <t>1stShare.png</t>
+  </si>
+  <si>
+    <t>1stVerifiedSolution.png</t>
+  </si>
+  <si>
+    <t>20YearUser.png</t>
+  </si>
+  <si>
+    <t>25thLikeGiven.png</t>
+  </si>
+  <si>
+    <t>25thLikeReceived.png</t>
+  </si>
+  <si>
+    <t>25thNewTopic.png</t>
+  </si>
+  <si>
+    <t>25thVerifiedSolution.png</t>
+  </si>
+  <si>
+    <t>25YearUser.png</t>
+  </si>
+  <si>
+    <t>500thLikeGiven.png</t>
+  </si>
+  <si>
+    <t>500thLikeReceived.png</t>
+  </si>
+  <si>
+    <t>50thLikeReceived.png</t>
+  </si>
+  <si>
+    <t>50thNewTopic.png</t>
+  </si>
+  <si>
+    <t>50thResponseProvided.png</t>
+  </si>
+  <si>
+    <t>50thShare.png</t>
+  </si>
+  <si>
+    <t>5thLikeGiven.png</t>
+  </si>
+  <si>
+    <t>5thLikeReceived.png</t>
+  </si>
+  <si>
+    <t>5thResponseProvided.png</t>
+  </si>
+  <si>
+    <t>5thShare.png</t>
+  </si>
+  <si>
+    <t>5YearUser.png</t>
+  </si>
+  <si>
+    <t>Rookie.png</t>
+  </si>
+  <si>
+    <t>UpdatedProfilePic.png</t>
+  </si>
+  <si>
+    <t>UpdatedProfile.png</t>
+  </si>
+  <si>
+    <t>BBCertifiedUser.png</t>
+  </si>
+  <si>
+    <t>Persistent</t>
+  </si>
+  <si>
+    <t>BBChampions.png</t>
+  </si>
+  <si>
+    <t>BBCON_attendee.png</t>
+  </si>
+  <si>
+    <t>BBCONPresenter.png</t>
+  </si>
+  <si>
+    <t>BBIS_user.png</t>
+  </si>
+  <si>
+    <t>BBStaff.png</t>
+  </si>
+  <si>
+    <t>BlogContributor.png</t>
+  </si>
+  <si>
+    <t>ChatParticipant.png</t>
+  </si>
+  <si>
+    <t>ChatPresenter.png</t>
+  </si>
+  <si>
+    <t>CustomerSuccessGraduate.png</t>
+  </si>
+  <si>
+    <t>PartnerNetwork.png</t>
+  </si>
+  <si>
+    <t>SDK.png</t>
+  </si>
+  <si>
+    <t>Strategist.png</t>
+  </si>
+  <si>
+    <t>VideoContributor.png</t>
+  </si>
+  <si>
+    <t>Visionary.png</t>
+  </si>
+  <si>
+    <t>WebinarContributor.png</t>
+  </si>
+  <si>
+    <t>Test description.</t>
+  </si>
+  <si>
+    <t>Another description</t>
+  </si>
+  <si>
+    <t>blah blah 1</t>
+  </si>
+  <si>
+    <t>blah blah 2</t>
+  </si>
+  <si>
+    <t>blah blah 3</t>
+  </si>
+  <si>
+    <t>blah blah 4</t>
+  </si>
+  <si>
+    <t>blah blah 5</t>
+  </si>
+  <si>
+    <t>blah blah 6</t>
+  </si>
+  <si>
+    <t>blah blah 7</t>
+  </si>
+  <si>
+    <t>blah blah 8</t>
+  </si>
+  <si>
+    <t>blah blah 9</t>
+  </si>
+  <si>
+    <t>blah blah 10</t>
+  </si>
+  <si>
+    <t>blah blah 11</t>
+  </si>
+  <si>
+    <t>blah blah 12</t>
+  </si>
+  <si>
+    <t>blah blah 13</t>
+  </si>
+  <si>
+    <t>blah blah 14</t>
+  </si>
+  <si>
+    <t>blah blah 15</t>
+  </si>
+  <si>
+    <t>blah blah 16</t>
+  </si>
+  <si>
+    <t>blah blah 17</t>
+  </si>
+  <si>
+    <t>blah blah 18</t>
+  </si>
+  <si>
+    <t>blah blah 19</t>
+  </si>
+  <si>
+    <t>blah blah 20</t>
+  </si>
+  <si>
+    <t>blah blah 21</t>
+  </si>
+  <si>
+    <t>blah blah 22</t>
+  </si>
+  <si>
+    <t>blah blah 23</t>
+  </si>
+  <si>
+    <t>blah blah 24</t>
+  </si>
+  <si>
+    <t>blah blah 25</t>
+  </si>
+  <si>
+    <t>blah blah 26</t>
+  </si>
+  <si>
+    <t>blah blah 27</t>
+  </si>
+  <si>
+    <t>blah blah 28</t>
+  </si>
+  <si>
+    <t>blah blah 29</t>
+  </si>
+  <si>
+    <t>blah blah 30</t>
+  </si>
+  <si>
+    <t>blah blah 31</t>
+  </si>
+  <si>
+    <t>blah blah 32</t>
+  </si>
+  <si>
+    <t>blah blah 33</t>
+  </si>
+  <si>
+    <t>blah blah 34</t>
+  </si>
+  <si>
+    <t>blah blah 35</t>
+  </si>
+  <si>
+    <t>blah blah 36</t>
+  </si>
+  <si>
+    <t>blah blah 37</t>
+  </si>
+  <si>
+    <t>blah blah 38</t>
+  </si>
+  <si>
+    <t>blah blah 39</t>
+  </si>
+  <si>
+    <t>blah blah 40</t>
+  </si>
+  <si>
+    <t>blah blah 41</t>
+  </si>
+  <si>
+    <t>blah blah 42</t>
+  </si>
+  <si>
+    <t>blah blah 43</t>
+  </si>
+  <si>
+    <t>blah blah 44</t>
+  </si>
+  <si>
+    <t>blah blah 45</t>
+  </si>
+  <si>
+    <t>blah blah 46</t>
+  </si>
+  <si>
+    <t>blah blah 47</t>
+  </si>
+  <si>
+    <t>blah blah 48</t>
+  </si>
+  <si>
+    <t>blah blah 49</t>
+  </si>
+  <si>
+    <t>blah blah 50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,25 +367,11 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -254,7 +390,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -278,69 +422,68 @@
   </borders>
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -687,315 +830,600 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A59"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="69.5" customWidth="1"/>
-    <col min="3" max="3" width="98.1640625" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="B26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="B27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="B28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="B31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="B32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="B33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="B36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="B37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+      <c r="B38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="B39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="B40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="B41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="B42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="B43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="B44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="B45" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="B46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="B47" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="B48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="B49" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="B50" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+      <c r="B51" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="B52" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>58</v>
+      <c r="B53" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/badge_descriptions.xlsx
+++ b/badge_descriptions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="28840" windowHeight="25000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Working" sheetId="1" r:id="rId1"/>
@@ -197,167 +197,167 @@
     <t>WebinarContributor.png</t>
   </si>
   <si>
-    <t>Test description.</t>
-  </si>
-  <si>
-    <t>Another description</t>
-  </si>
-  <si>
-    <t>blah blah 1</t>
-  </si>
-  <si>
-    <t>blah blah 2</t>
-  </si>
-  <si>
-    <t>blah blah 3</t>
-  </si>
-  <si>
-    <t>blah blah 4</t>
-  </si>
-  <si>
-    <t>blah blah 5</t>
-  </si>
-  <si>
-    <t>blah blah 6</t>
-  </si>
-  <si>
-    <t>blah blah 7</t>
-  </si>
-  <si>
-    <t>blah blah 8</t>
-  </si>
-  <si>
-    <t>blah blah 9</t>
-  </si>
-  <si>
-    <t>blah blah 10</t>
-  </si>
-  <si>
-    <t>blah blah 11</t>
-  </si>
-  <si>
-    <t>blah blah 12</t>
-  </si>
-  <si>
-    <t>blah blah 13</t>
-  </si>
-  <si>
-    <t>blah blah 14</t>
-  </si>
-  <si>
-    <t>blah blah 15</t>
-  </si>
-  <si>
-    <t>blah blah 16</t>
-  </si>
-  <si>
-    <t>blah blah 17</t>
-  </si>
-  <si>
-    <t>blah blah 18</t>
-  </si>
-  <si>
-    <t>blah blah 19</t>
-  </si>
-  <si>
-    <t>blah blah 20</t>
-  </si>
-  <si>
-    <t>blah blah 21</t>
-  </si>
-  <si>
-    <t>blah blah 22</t>
-  </si>
-  <si>
-    <t>blah blah 23</t>
-  </si>
-  <si>
-    <t>blah blah 24</t>
-  </si>
-  <si>
-    <t>blah blah 25</t>
-  </si>
-  <si>
-    <t>blah blah 26</t>
-  </si>
-  <si>
-    <t>blah blah 27</t>
-  </si>
-  <si>
-    <t>blah blah 28</t>
-  </si>
-  <si>
-    <t>blah blah 29</t>
-  </si>
-  <si>
-    <t>blah blah 30</t>
-  </si>
-  <si>
-    <t>blah blah 31</t>
-  </si>
-  <si>
-    <t>blah blah 32</t>
-  </si>
-  <si>
-    <t>blah blah 33</t>
-  </si>
-  <si>
-    <t>blah blah 34</t>
-  </si>
-  <si>
-    <t>blah blah 35</t>
-  </si>
-  <si>
-    <t>blah blah 36</t>
-  </si>
-  <si>
-    <t>blah blah 37</t>
-  </si>
-  <si>
-    <t>blah blah 38</t>
-  </si>
-  <si>
-    <t>blah blah 39</t>
-  </si>
-  <si>
-    <t>blah blah 40</t>
-  </si>
-  <si>
-    <t>blah blah 41</t>
-  </si>
-  <si>
-    <t>blah blah 42</t>
-  </si>
-  <si>
-    <t>blah blah 43</t>
-  </si>
-  <si>
-    <t>blah blah 44</t>
-  </si>
-  <si>
-    <t>blah blah 45</t>
-  </si>
-  <si>
-    <t>blah blah 46</t>
-  </si>
-  <si>
-    <t>blah blah 47</t>
-  </si>
-  <si>
-    <t>blah blah 48</t>
-  </si>
-  <si>
-    <t>blah blah 49</t>
-  </si>
-  <si>
-    <t>blah blah 50</t>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. 1</t>
+  </si>
+  <si>
+    <t>Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. 2</t>
+  </si>
+  <si>
+    <t>Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum. 3</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. 2</t>
+  </si>
+  <si>
+    <t>Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. 3</t>
+  </si>
+  <si>
+    <t>Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum. 4</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. 3</t>
+  </si>
+  <si>
+    <t>Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. 4</t>
+  </si>
+  <si>
+    <t>Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum. 5</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. 4</t>
+  </si>
+  <si>
+    <t>Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. 5</t>
+  </si>
+  <si>
+    <t>Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum. 6</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. 5</t>
+  </si>
+  <si>
+    <t>Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. 6</t>
+  </si>
+  <si>
+    <t>Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum. 7</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. 6</t>
+  </si>
+  <si>
+    <t>Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. 7</t>
+  </si>
+  <si>
+    <t>Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum. 8</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. 7</t>
+  </si>
+  <si>
+    <t>Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. 8</t>
+  </si>
+  <si>
+    <t>Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum. 9</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. 8</t>
+  </si>
+  <si>
+    <t>Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. 9</t>
+  </si>
+  <si>
+    <t>Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum. 10</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. 9</t>
+  </si>
+  <si>
+    <t>Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. 10</t>
+  </si>
+  <si>
+    <t>Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum. 11</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. 10</t>
+  </si>
+  <si>
+    <t>Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. 11</t>
+  </si>
+  <si>
+    <t>Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum. 12</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. 11</t>
+  </si>
+  <si>
+    <t>Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. 12</t>
+  </si>
+  <si>
+    <t>Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum. 13</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. 12</t>
+  </si>
+  <si>
+    <t>Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. 13</t>
+  </si>
+  <si>
+    <t>Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum. 14</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. 13</t>
+  </si>
+  <si>
+    <t>Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. 14</t>
+  </si>
+  <si>
+    <t>Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum. 15</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. 14</t>
+  </si>
+  <si>
+    <t>Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. 15</t>
+  </si>
+  <si>
+    <t>Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum. 16</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. 15</t>
+  </si>
+  <si>
+    <t>Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. 16</t>
+  </si>
+  <si>
+    <t>Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum. 17</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. 16</t>
+  </si>
+  <si>
+    <t>Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. 17</t>
+  </si>
+  <si>
+    <t>Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum. 18</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. 17</t>
+  </si>
+  <si>
+    <t>Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. 18</t>
+  </si>
+  <si>
+    <t>Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum. 19</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. 18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +402,11 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -479,11 +484,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -832,15 +838,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.83203125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="47.33203125" customWidth="1"/>
+    <col min="3" max="3" width="104.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -861,7 +867,7 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -872,7 +878,7 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>58</v>
       </c>
     </row>
@@ -883,7 +889,7 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -894,7 +900,7 @@
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -905,7 +911,7 @@
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -916,7 +922,7 @@
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -927,7 +933,7 @@
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -938,7 +944,7 @@
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -949,7 +955,7 @@
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -960,7 +966,7 @@
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -971,7 +977,7 @@
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -982,7 +988,7 @@
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -993,7 +999,7 @@
       <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1004,7 +1010,7 @@
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1015,7 +1021,7 @@
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1026,7 +1032,7 @@
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1037,7 +1043,7 @@
       <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1048,7 +1054,7 @@
       <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1059,7 +1065,7 @@
       <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1070,7 +1076,7 @@
       <c r="B21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1081,7 +1087,7 @@
       <c r="B22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1092,7 +1098,7 @@
       <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1103,7 +1109,7 @@
       <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1114,7 +1120,7 @@
       <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1125,7 +1131,7 @@
       <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1136,7 +1142,7 @@
       <c r="B27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1147,7 +1153,7 @@
       <c r="B28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1158,7 +1164,7 @@
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1169,7 +1175,7 @@
       <c r="B30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1180,7 +1186,7 @@
       <c r="B31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1191,7 +1197,7 @@
       <c r="B32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1202,7 +1208,7 @@
       <c r="B33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1213,7 +1219,7 @@
       <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1224,7 +1230,7 @@
       <c r="B35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1235,7 +1241,7 @@
       <c r="B36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1246,7 +1252,7 @@
       <c r="B37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1257,7 +1263,7 @@
       <c r="B38" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1268,7 +1274,7 @@
       <c r="B39" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1279,7 +1285,7 @@
       <c r="B40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1290,7 +1296,7 @@
       <c r="B41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="4" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1301,7 +1307,7 @@
       <c r="B42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1312,7 +1318,7 @@
       <c r="B43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="4" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1323,7 +1329,7 @@
       <c r="B44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1334,7 +1340,7 @@
       <c r="B45" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1345,7 +1351,7 @@
       <c r="B46" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1356,7 +1362,7 @@
       <c r="B47" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1367,7 +1373,7 @@
       <c r="B48" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1378,7 +1384,7 @@
       <c r="B49" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1389,7 +1395,7 @@
       <c r="B50" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1400,7 +1406,7 @@
       <c r="B51" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1411,7 +1417,7 @@
       <c r="B52" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1422,12 +1428,12 @@
       <c r="B53" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="4" t="s">
         <v>108</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C1 C54:C1048576">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="506009190">
       <formula>NOT(ISERROR(SEARCH("506009190",C1)))</formula>
     </cfRule>

--- a/badge_descriptions.xlsx
+++ b/badge_descriptions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="162">
   <si>
     <t>Filename</t>
   </si>
@@ -351,6 +351,165 @@
   </si>
   <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. 18</t>
+  </si>
+  <si>
+    <t>Heading</t>
+  </si>
+  <si>
+    <t>1000th Like Given</t>
+  </si>
+  <si>
+    <t>100th Like Given</t>
+  </si>
+  <si>
+    <t>100th Like Received</t>
+  </si>
+  <si>
+    <t>100th New Topic</t>
+  </si>
+  <si>
+    <t>100th Response Provided</t>
+  </si>
+  <si>
+    <t>100th Share</t>
+  </si>
+  <si>
+    <t>10th New Topic</t>
+  </si>
+  <si>
+    <t>10th Response Provided</t>
+  </si>
+  <si>
+    <t>10th Share</t>
+  </si>
+  <si>
+    <t>10th Verified Solution</t>
+  </si>
+  <si>
+    <t>10 Year User</t>
+  </si>
+  <si>
+    <t>15 Year User</t>
+  </si>
+  <si>
+    <t>1st New Topic</t>
+  </si>
+  <si>
+    <t>1st Response Provided</t>
+  </si>
+  <si>
+    <t>1st Share</t>
+  </si>
+  <si>
+    <t>1st Verified Solution</t>
+  </si>
+  <si>
+    <t>20 Year User</t>
+  </si>
+  <si>
+    <t>25th Like Given</t>
+  </si>
+  <si>
+    <t>25th Like Received</t>
+  </si>
+  <si>
+    <t>25th New Topic</t>
+  </si>
+  <si>
+    <t>25th Verified Solution</t>
+  </si>
+  <si>
+    <t>25 Year User</t>
+  </si>
+  <si>
+    <t>500th Like Given</t>
+  </si>
+  <si>
+    <t>500th Like Received</t>
+  </si>
+  <si>
+    <t>50th Like Received</t>
+  </si>
+  <si>
+    <t>50th New Topic</t>
+  </si>
+  <si>
+    <t>50th Response Provided</t>
+  </si>
+  <si>
+    <t>50th Share</t>
+  </si>
+  <si>
+    <t>5th Like Given</t>
+  </si>
+  <si>
+    <t>5th Like Received</t>
+  </si>
+  <si>
+    <t>5th Response Provided</t>
+  </si>
+  <si>
+    <t>5th Share</t>
+  </si>
+  <si>
+    <t>5 Year User</t>
+  </si>
+  <si>
+    <t>Rookie</t>
+  </si>
+  <si>
+    <t>Updated Profile Pic</t>
+  </si>
+  <si>
+    <t>Updated Profile</t>
+  </si>
+  <si>
+    <t>BB Certified User</t>
+  </si>
+  <si>
+    <t>BB Champions</t>
+  </si>
+  <si>
+    <t>BBCON_attendee</t>
+  </si>
+  <si>
+    <t>BBCON Presenter</t>
+  </si>
+  <si>
+    <t>BBIS User</t>
+  </si>
+  <si>
+    <t>BB Staff</t>
+  </si>
+  <si>
+    <t>Blog Contributor</t>
+  </si>
+  <si>
+    <t>Chat Participant</t>
+  </si>
+  <si>
+    <t>Chat Presenter</t>
+  </si>
+  <si>
+    <t>Customer Success Graduate</t>
+  </si>
+  <si>
+    <t>Partner Network</t>
+  </si>
+  <si>
+    <t>SDK</t>
+  </si>
+  <si>
+    <t>Strategist</t>
+  </si>
+  <si>
+    <t>Video Contributor</t>
+  </si>
+  <si>
+    <t>Visionary</t>
+  </si>
+  <si>
+    <t>Webinar Contributor</t>
   </si>
 </sst>
 </file>
@@ -836,20 +995,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.83203125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="104.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="104.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -857,585 +1017,744 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>108</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1 C54:C1048576">
+  <conditionalFormatting sqref="D1 D54:D1048576">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="506009190">
-      <formula>NOT(ISERROR(SEARCH("506009190",C1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("506009190",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
